--- a/Instructions and Documentation/Testing/Incursion, Funds, Cost Tracking and Averages.xlsx
+++ b/Instructions and Documentation/Testing/Incursion, Funds, Cost Tracking and Averages.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14c6bf9612126e98/I.T Jobs/UWA Ben White Biosecurity Project/Biosecurity Game/Instructions and Documentation/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\I.T Jobs\UWA Ben White Biosecurity Project\Biosecurity Game\Instructions and Documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="15384" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="15384"/>
   </bookViews>
   <sheets>
     <sheet name="Incursions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Effort Per Round</t>
   </si>
@@ -110,6 +110,60 @@
   <si>
     <t>By Game 5, What I can see with this is that sometimes it can seem good to do at 3/4 max protection, but its risky! Big Rewards or Big Losses, no in between</t>
   </si>
+  <si>
+    <t>Game 7 Had Rather "Realistic" Costs by the random generator in terms of what people will probably do. Always had two players being cooperative, and one below them around $3 less and one non-cooperative, led to rather good results compared to other games.</t>
+  </si>
+  <si>
+    <t>Worst Case Scenario Here Game 4 - 15 Incursions</t>
+  </si>
+  <si>
+    <t>Game 7 produced a 'nice' result, Only 4 incursions, player's fared rather well.</t>
+  </si>
+  <si>
+    <t>Worst Case Scenario</t>
+  </si>
+  <si>
+    <t>Game 11 showed best case scenario by round 5 for 3/4 max protection</t>
+  </si>
+  <si>
+    <t>Game 12 is a good simulation for when a group has what I'd call realistic scenario where cooperation upto round 5 was high, then after there was 1 or 2 rounds of bad luck and a breakdown in communication occurred aftergiving bad results for the group</t>
+  </si>
+  <si>
+    <t>Game 13, from observation if anyone does less than $1.50 for effort, then an incursion is rather likely to happen, however if players keep a good minimum of $6, then incursions will happen less and thus better results</t>
+  </si>
+  <si>
+    <t>Average At 5 Rounds</t>
+  </si>
+  <si>
+    <t>Average at 15 Rounds</t>
+  </si>
+  <si>
+    <t>Player 1 and 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average At 5 Rounds </t>
+  </si>
+  <si>
+    <t>Player 2 and 4</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>Player 3</t>
+  </si>
+  <si>
+    <t>Player 4</t>
+  </si>
+  <si>
+    <t>Average Number of Incursions</t>
+  </si>
+  <si>
+    <t>Half 0 -0 Half Full</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -639,11 +699,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -700,6 +819,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,13 +1150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1136,21 +1270,51 @@
       <c r="F3" s="16">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
+      <c r="G3" s="16">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16">
+        <v>10</v>
+      </c>
+      <c r="K3" s="16">
+        <v>13</v>
+      </c>
+      <c r="L3" s="16">
+        <v>13</v>
+      </c>
+      <c r="M3" s="16">
+        <v>11</v>
+      </c>
+      <c r="N3" s="16">
+        <v>7</v>
+      </c>
+      <c r="O3" s="16">
+        <v>12</v>
+      </c>
+      <c r="P3" s="16">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>10</v>
+      </c>
+      <c r="R3" s="16">
+        <v>10</v>
+      </c>
+      <c r="S3" s="16">
+        <v>10</v>
+      </c>
+      <c r="T3" s="16">
+        <v>11</v>
+      </c>
+      <c r="U3" s="17">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -1171,21 +1335,51 @@
       <c r="F4" s="19">
         <v>13</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
+      <c r="G4" s="19">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19">
+        <v>14</v>
+      </c>
+      <c r="I4" s="19">
+        <v>13</v>
+      </c>
+      <c r="J4" s="19">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19">
+        <v>11</v>
+      </c>
+      <c r="L4" s="19">
+        <v>14</v>
+      </c>
+      <c r="M4" s="19">
+        <v>13</v>
+      </c>
+      <c r="N4" s="19">
+        <v>12</v>
+      </c>
+      <c r="O4" s="19">
+        <v>12</v>
+      </c>
+      <c r="P4" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>15</v>
+      </c>
+      <c r="R4" s="19">
+        <v>12</v>
+      </c>
+      <c r="S4" s="19">
+        <v>15</v>
+      </c>
+      <c r="T4" s="19">
+        <v>12</v>
+      </c>
+      <c r="U4" s="20">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -1206,21 +1400,51 @@
       <c r="F5" s="19">
         <v>9</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+      <c r="G5" s="19">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19">
+        <v>13</v>
+      </c>
+      <c r="I5" s="19">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19">
+        <v>13</v>
+      </c>
+      <c r="K5" s="19">
+        <v>9</v>
+      </c>
+      <c r="L5" s="19">
+        <v>8</v>
+      </c>
+      <c r="M5" s="19">
+        <v>9</v>
+      </c>
+      <c r="N5" s="19">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19">
+        <v>11</v>
+      </c>
+      <c r="P5" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>9</v>
+      </c>
+      <c r="R5" s="19">
+        <v>7</v>
+      </c>
+      <c r="S5" s="19">
+        <v>12</v>
+      </c>
+      <c r="T5" s="19">
+        <v>6</v>
+      </c>
+      <c r="U5" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -1241,21 +1465,51 @@
       <c r="F6" s="19">
         <v>9</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="20"/>
+      <c r="G6" s="19">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4</v>
+      </c>
+      <c r="I6" s="19">
+        <v>9</v>
+      </c>
+      <c r="J6" s="19">
+        <v>9</v>
+      </c>
+      <c r="K6" s="19">
+        <v>9</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4</v>
+      </c>
+      <c r="O6" s="19">
+        <v>4</v>
+      </c>
+      <c r="P6" s="19">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>4</v>
+      </c>
+      <c r="R6" s="19">
+        <v>6</v>
+      </c>
+      <c r="S6" s="19">
+        <v>3</v>
+      </c>
+      <c r="T6" s="19">
+        <v>5</v>
+      </c>
+      <c r="U6" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -1276,21 +1530,51 @@
       <c r="F7" s="19">
         <v>0</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -1311,21 +1595,51 @@
       <c r="F8" s="19">
         <v>13</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
+      <c r="G8" s="19">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
+        <v>11</v>
+      </c>
+      <c r="J8" s="19">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19">
+        <v>13</v>
+      </c>
+      <c r="L8" s="19">
+        <v>14</v>
+      </c>
+      <c r="M8" s="19">
+        <v>11</v>
+      </c>
+      <c r="N8" s="19">
+        <v>12</v>
+      </c>
+      <c r="O8" s="19">
+        <v>14</v>
+      </c>
+      <c r="P8" s="19">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>10</v>
+      </c>
+      <c r="R8" s="19">
+        <v>11</v>
+      </c>
+      <c r="S8" s="19">
+        <v>13</v>
+      </c>
+      <c r="T8" s="19">
+        <v>12</v>
+      </c>
+      <c r="U8" s="20">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
@@ -1346,21 +1660,51 @@
       <c r="F9" s="23">
         <v>14</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="G9" s="23">
+        <v>14</v>
+      </c>
+      <c r="H9" s="23">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23">
+        <v>15</v>
+      </c>
+      <c r="J9" s="23">
+        <v>15</v>
+      </c>
+      <c r="K9" s="23">
+        <v>15</v>
+      </c>
+      <c r="L9" s="23">
+        <v>15</v>
+      </c>
+      <c r="M9" s="23">
+        <v>15</v>
+      </c>
+      <c r="N9" s="23">
+        <v>15</v>
+      </c>
+      <c r="O9" s="23">
+        <v>15</v>
+      </c>
+      <c r="P9" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>15</v>
+      </c>
+      <c r="R9" s="23">
+        <v>15</v>
+      </c>
+      <c r="S9" s="23">
+        <v>14</v>
+      </c>
+      <c r="T9" s="23">
+        <v>15</v>
+      </c>
+      <c r="U9" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
@@ -1387,7 +1731,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="32"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1410,67 +1754,112 @@
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="40">
+        <f>AVERAGE(B3:U3)</f>
+        <v>10.25</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="40">
+        <f>AVERAGE(B4:U4)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="40">
+        <f t="shared" ref="B14:B19" si="0">AVERAGE(B5:U5)</f>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="56">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2452,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2727,331 +3116,571 @@
       <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="38">
+        <v>-7.4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-90.56</v>
+      </c>
       <c r="E8" s="44">
         <v>6</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="38">
+        <v>-18.36</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-91.17</v>
+      </c>
       <c r="I8" s="44">
         <v>6</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="38">
+        <v>-19.8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-86.31</v>
+      </c>
       <c r="M8" s="44">
         <v>6</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="38">
+        <v>-22.9</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-89.18</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="38">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-0.03</v>
+      </c>
       <c r="E9" s="44">
         <v>7</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="38">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>24.63</v>
+      </c>
       <c r="I9" s="44">
         <v>7</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="38">
+        <v>44.75</v>
+      </c>
+      <c r="K9" s="4">
+        <v>39.32</v>
+      </c>
       <c r="M9" s="44">
         <v>7</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="38">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>9.9700000000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="38">
+        <v>10.53</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-35.020000000000003</v>
+      </c>
       <c r="E10" s="44">
         <v>8</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="38">
+        <v>10.66</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-27.1</v>
+      </c>
       <c r="I10" s="44">
         <v>8</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="38">
+        <v>28.83</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-28.12</v>
+      </c>
       <c r="M10" s="44">
         <v>8</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="38">
+        <v>12.01</v>
+      </c>
+      <c r="O10" s="4">
+        <v>-35.58</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="38">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-33.42</v>
+      </c>
       <c r="E11" s="44">
         <v>9</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="38">
+        <v>54.73</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-19.95</v>
+      </c>
       <c r="I11" s="44">
         <v>9</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="38">
+        <v>33.14</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-36.97</v>
+      </c>
       <c r="M11" s="44">
         <v>9</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="38">
+        <v>27.09</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-43.99</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="38">
+        <v>-18.3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-129.16999999999999</v>
+      </c>
       <c r="E12" s="44">
         <v>10</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="38">
+        <v>-3.55</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-75.2</v>
+      </c>
       <c r="I12" s="44">
         <v>10</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="38">
+        <v>-6.62</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-105.95</v>
+      </c>
       <c r="M12" s="44">
         <v>10</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="38">
+        <v>-10.45</v>
+      </c>
+      <c r="O12" s="4">
+        <v>-108.2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="38">
+        <v>-48.79</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-127.26</v>
+      </c>
       <c r="E13" s="44">
         <v>11</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="38">
+        <v>-28.49</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-98.94</v>
+      </c>
       <c r="I13" s="44">
         <v>11</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="38">
+        <v>-32.96</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-125.07</v>
+      </c>
       <c r="M13" s="44">
         <v>11</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="38">
+        <v>-37.229999999999997</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-126.84</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="38">
+        <v>41.15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-85.21</v>
+      </c>
       <c r="E14" s="44">
         <v>12</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="38">
+        <v>48.42</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-74.05</v>
+      </c>
       <c r="I14" s="44">
         <v>12</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="38">
+        <v>62.85</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-48.83</v>
+      </c>
       <c r="M14" s="44">
         <v>12</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="38">
+        <v>62.96</v>
+      </c>
+      <c r="O14" s="4">
+        <v>-69.97</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="38">
+        <v>13.62</v>
+      </c>
+      <c r="C15" s="4">
+        <v>60.65</v>
+      </c>
       <c r="E15" s="44">
         <v>13</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="38">
+        <v>18.02</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42.95</v>
+      </c>
       <c r="I15" s="44">
         <v>13</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="38">
+        <v>4.05</v>
+      </c>
+      <c r="K15" s="4">
+        <v>30.54</v>
+      </c>
       <c r="M15" s="44">
         <v>13</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="38">
+        <v>26.84</v>
+      </c>
+      <c r="O15" s="4">
+        <v>36.11</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="38">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-48.99</v>
+      </c>
       <c r="E16" s="44">
         <v>14</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="38">
+        <v>-13.23</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-75.28</v>
+      </c>
       <c r="I16" s="44">
         <v>14</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="38">
+        <v>-3.18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-75.42</v>
+      </c>
       <c r="M16" s="44">
         <v>14</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="38">
+        <v>-11.85</v>
+      </c>
+      <c r="O16" s="4">
+        <v>-87.02</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="38">
+        <v>3.87</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-51.72</v>
+      </c>
       <c r="E17" s="44">
         <v>15</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="38">
+        <v>17.46</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-68.37</v>
+      </c>
       <c r="I17" s="44">
         <v>15</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="38">
+        <v>17.11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-68.55</v>
+      </c>
       <c r="M17" s="44">
         <v>15</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>-86.78</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="38">
+        <v>1.24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.56</v>
+      </c>
       <c r="E18" s="44">
         <v>16</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="38">
+        <v>-22.4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-47.62</v>
+      </c>
       <c r="I18" s="44">
         <v>16</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="38">
+        <v>-22.44</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-51.34</v>
+      </c>
       <c r="M18" s="44">
         <v>16</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="4"/>
+      <c r="N18" s="38">
+        <v>-5.36</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-42.31</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="38">
+        <v>14.63</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-48.29</v>
+      </c>
       <c r="E19" s="44">
         <v>17</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="38">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-30.48</v>
+      </c>
       <c r="I19" s="44">
         <v>17</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="38">
+        <v>26.03</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-23.35</v>
+      </c>
       <c r="M19" s="44">
         <v>17</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="4"/>
+      <c r="N19" s="38">
+        <v>1.18</v>
+      </c>
+      <c r="O19" s="4">
+        <v>-58.69</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="38">
+        <v>-6.09</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-27.47</v>
+      </c>
       <c r="E20" s="44">
         <v>18</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="38">
+        <v>-19.66</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-59.8</v>
+      </c>
       <c r="I20" s="44">
         <v>18</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="4"/>
+      <c r="J20" s="38">
+        <v>-13.57</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-52.71</v>
+      </c>
       <c r="M20" s="44">
         <v>18</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="38">
+        <v>-7.75</v>
+      </c>
+      <c r="O20" s="4">
+        <v>-26.84</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>19</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="38">
+        <v>-24.34</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-92.36</v>
+      </c>
       <c r="E21" s="44">
         <v>19</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="38">
+        <v>-15.94</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-64.989999999999995</v>
+      </c>
       <c r="I21" s="44">
         <v>19</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="38">
+        <v>-17.68</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-94.89</v>
+      </c>
       <c r="M21" s="44">
         <v>19</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="4"/>
+      <c r="N21" s="38">
+        <v>13.13</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-64.48</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45">
         <v>20</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="39">
+        <v>-13.88</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-58.82</v>
+      </c>
       <c r="E22" s="45">
         <v>20</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="39">
+        <v>-11.86</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-84.73</v>
+      </c>
       <c r="I22" s="45">
         <v>20</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="5"/>
+      <c r="J22" s="39">
+        <v>-14.42</v>
+      </c>
+      <c r="K22" s="5">
+        <v>-59.6</v>
+      </c>
       <c r="M22" s="45">
         <v>20</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="39">
+        <v>-16.18</v>
+      </c>
+      <c r="O22" s="5">
+        <v>-45.68</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3084,6 +3713,130 @@
         <v>22</v>
       </c>
     </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="50"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <f>AVERAGE(B2:B22)</f>
+        <v>2.9405000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <f>AVERAGE(C2:C22)</f>
+        <v>-45.26100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
+      <c r="B38" s="49"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="50"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4">
+        <f>AVERAGE(F2:F22)</f>
+        <v>5.9630000000000019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="5">
+        <f>AVERAGE(G3:G22)</f>
+        <v>-40.047499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="57"/>
+      <c r="B42" s="49"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="50"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4">
+        <f>AVERAGE(J2:J22)</f>
+        <v>6.5745000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="5">
+        <f>AVERAGE(K3:K22)</f>
+        <v>-42.076000000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="57"/>
+      <c r="B46" s="49"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="50"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4">
+        <f>AVERAGE(N3:N22)</f>
+        <v>5.581500000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="5">
+        <f>AVERAGE(O3:O22)</f>
+        <v>-46.715499999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3091,10 +3844,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="11" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="27.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>6.25</v>
+      </c>
+      <c r="C3" s="40">
+        <v>-56.25</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-81.25</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-56.25</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-106.25</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-56.25</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-81.25</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-56.25</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38">
+        <v>31.25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38">
+        <v>31.25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-6.25</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-81.25</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-56.25</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-81.25</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-106.25</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38">
+        <v>31.25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38">
+        <v>-18.75</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-106.25</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38">
+        <v>6.25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-31.25</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45">
+        <v>20</v>
+      </c>
+      <c r="B22" s="39">
+        <v>6.25</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-6.25</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="50">
+        <f>AVERAGE(B2:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5">
+        <f>AVERAGE(C2:C22)</f>
+        <v>-56.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3157,10 +4470,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33">
-        <v>6.25</v>
+        <v>-37.5</v>
       </c>
       <c r="C3" s="40">
-        <v>-56.25</v>
+        <v>-87.5</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="30"/>
@@ -3179,10 +4492,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="38">
-        <v>-18.75</v>
+        <v>-37.5</v>
       </c>
       <c r="C4" s="4">
-        <v>-81.25</v>
+        <v>-62.5</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="30"/>
@@ -3201,10 +4514,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38">
-        <v>6.25</v>
+        <v>37.5</v>
       </c>
       <c r="C5" s="4">
-        <v>-56.25</v>
+        <v>12.5</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="30"/>
@@ -3223,10 +4536,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38">
-        <v>-18.75</v>
+        <v>37.5</v>
       </c>
       <c r="C6" s="4">
-        <v>-106.25</v>
+        <v>12.5</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="30"/>
@@ -3245,10 +4558,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38">
-        <v>6.25</v>
+        <v>37.5</v>
       </c>
       <c r="C7" s="4">
-        <v>-56.25</v>
+        <v>-12.5</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="30"/>
@@ -3266,8 +4579,12 @@
       <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-112.5</v>
+      </c>
       <c r="E8" s="47"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -3284,8 +4601,12 @@
       <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-112.5</v>
+      </c>
       <c r="E9" s="47"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -3302,8 +4623,12 @@
       <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-37.5</v>
+      </c>
       <c r="E10" s="47"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -3320,8 +4645,12 @@
       <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-112.5</v>
+      </c>
       <c r="E11" s="47"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -3338,8 +4667,12 @@
       <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-12.5</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -3356,8 +4689,12 @@
       <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12.5</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -3374,8 +4711,12 @@
       <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-12.5</v>
+      </c>
       <c r="E14" s="47"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -3392,8 +4733,12 @@
       <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-37.5</v>
+      </c>
       <c r="E15" s="47"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -3410,8 +4755,12 @@
       <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-62.5</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -3428,8 +4777,12 @@
       <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12.5</v>
+      </c>
       <c r="E17" s="47"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -3446,8 +4799,12 @@
       <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="38">
+        <v>12.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-12.5</v>
+      </c>
       <c r="E18" s="47"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -3464,8 +4821,12 @@
       <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>37.5</v>
+      </c>
       <c r="E19" s="47"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -3482,8 +4843,12 @@
       <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="38">
+        <v>-12.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-87.5</v>
+      </c>
       <c r="E20" s="47"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -3500,8 +4865,12 @@
       <c r="A21" s="44">
         <v>19</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>62.5</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -3518,8 +4887,12 @@
       <c r="A22" s="45">
         <v>20</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="39">
+        <v>37.5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>12.5</v>
+      </c>
       <c r="E22" s="47"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -3560,7 +4933,26 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="50">
+        <f>AVERAGE(B2:B22)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5">
+        <f>AVERAGE(C2:C22)</f>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
@@ -3568,12 +4960,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A32" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3636,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33">
-        <v>-37.5</v>
+        <v>-6.25</v>
       </c>
       <c r="C3" s="40">
-        <v>-87.5</v>
+        <v>31.25</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="30"/>
@@ -3658,10 +5050,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="38">
-        <v>-37.5</v>
+        <v>68.75</v>
       </c>
       <c r="C4" s="4">
-        <v>-62.5</v>
+        <v>6.25</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="30"/>
@@ -3680,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38">
-        <v>37.5</v>
+        <v>43.75</v>
       </c>
       <c r="C5" s="4">
-        <v>12.5</v>
+        <v>-18.75</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="30"/>
@@ -3702,10 +5094,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38">
-        <v>37.5</v>
+        <v>43.75</v>
       </c>
       <c r="C6" s="4">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="30"/>
@@ -3724,10 +5116,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38">
-        <v>37.5</v>
+        <v>18.75</v>
       </c>
       <c r="C7" s="4">
-        <v>-12.5</v>
+        <v>-68.75</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="30"/>
@@ -3745,8 +5137,12 @@
       <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="38">
+        <v>-31.25</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-18.75</v>
+      </c>
       <c r="E8" s="47"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -3763,8 +5159,12 @@
       <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="38">
+        <v>43.75</v>
+      </c>
+      <c r="C9" s="4">
+        <v>56.25</v>
+      </c>
       <c r="E9" s="47"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -3781,8 +5181,12 @@
       <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="38">
+        <v>43.75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-68.75</v>
+      </c>
       <c r="E10" s="47"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -3799,8 +5203,12 @@
       <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="38">
+        <v>18.75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-68.75</v>
+      </c>
       <c r="E11" s="47"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -3817,8 +5225,12 @@
       <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="38">
+        <v>-6.25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-68.75</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -3835,8 +5247,12 @@
       <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="38">
+        <v>68.75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>81.25</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -3853,8 +5269,12 @@
       <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="38">
+        <v>43.75</v>
+      </c>
+      <c r="C14" s="4">
+        <v>81.25</v>
+      </c>
       <c r="E14" s="47"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -3871,8 +5291,12 @@
       <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="38">
+        <v>18.75</v>
+      </c>
+      <c r="C15" s="4">
+        <v>56.25</v>
+      </c>
       <c r="E15" s="47"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -3889,8 +5313,12 @@
       <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="38">
+        <v>68.75</v>
+      </c>
+      <c r="C16" s="4">
+        <v>56.25</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -3907,8 +5335,12 @@
       <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="38">
+        <v>-6.25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>31.25</v>
+      </c>
       <c r="E17" s="47"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -3925,8 +5357,12 @@
       <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="38">
+        <v>18.75</v>
+      </c>
+      <c r="C18" s="4">
+        <v>56.25</v>
+      </c>
       <c r="E18" s="47"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -3943,8 +5379,12 @@
       <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="38">
+        <v>18.75</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6.25</v>
+      </c>
       <c r="E19" s="47"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -3961,8 +5401,12 @@
       <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="38">
+        <v>43.75</v>
+      </c>
+      <c r="C20" s="4">
+        <v>81.25</v>
+      </c>
       <c r="E20" s="47"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -3979,8 +5423,12 @@
       <c r="A21" s="44">
         <v>19</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="38">
+        <v>-31.25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>31.25</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -3997,8 +5445,12 @@
       <c r="A22" s="45">
         <v>20</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="C22" s="5">
+        <v>56.25</v>
+      </c>
       <c r="E22" s="47"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -4039,7 +5491,36 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="50">
+        <f>AVERAGE(B2:B22)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5">
+        <f>AVERAGE(C2:C22)</f>
+        <v>16.25</v>
       </c>
     </row>
   </sheetData>
@@ -4047,12 +5528,1259 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A26" sqref="A26:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="11" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="27.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>50</v>
+      </c>
+      <c r="C3" s="40">
+        <v>100</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="50">
+        <f>AVERAGE(B2:B22)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5">
+        <f>AVERAGE(C3:C22)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="11" width="18.21875" customWidth="1"/>
+    <col min="13" max="13" width="27.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>-75</v>
+      </c>
+      <c r="C3" s="40">
+        <v>-250</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>-50</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-150</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="38">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4">
+        <v>75</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-200</v>
+      </c>
+      <c r="E5" s="44">
+        <v>3</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-250</v>
+      </c>
+      <c r="E6" s="44">
+        <v>4</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-50</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-225</v>
+      </c>
+      <c r="E7" s="44">
+        <v>5</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-225</v>
+      </c>
+      <c r="E8" s="44">
+        <v>6</v>
+      </c>
+      <c r="F8" s="38">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-275</v>
+      </c>
+      <c r="E9" s="44">
+        <v>7</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-50</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-175</v>
+      </c>
+      <c r="E10" s="44">
+        <v>8</v>
+      </c>
+      <c r="F10" s="38">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>50</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-250</v>
+      </c>
+      <c r="E11" s="44">
+        <v>9</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-25</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-225</v>
+      </c>
+      <c r="E12" s="44">
+        <v>10</v>
+      </c>
+      <c r="F12" s="38">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-250</v>
+      </c>
+      <c r="E13" s="44">
+        <v>11</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-25</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-175</v>
+      </c>
+      <c r="E14" s="44">
+        <v>12</v>
+      </c>
+      <c r="F14" s="38">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-200</v>
+      </c>
+      <c r="E15" s="44">
+        <v>13</v>
+      </c>
+      <c r="F15" s="38">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-250</v>
+      </c>
+      <c r="E16" s="44">
+        <v>14</v>
+      </c>
+      <c r="F16" s="38">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-25</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-225</v>
+      </c>
+      <c r="E17" s="44">
+        <v>15</v>
+      </c>
+      <c r="F17" s="38">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38">
+        <v>-25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-150</v>
+      </c>
+      <c r="E18" s="44">
+        <v>16</v>
+      </c>
+      <c r="F18" s="38">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4">
+        <v>75</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38">
+        <v>-75</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-175</v>
+      </c>
+      <c r="E19" s="44">
+        <v>17</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>50</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38">
+        <v>-50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-225</v>
+      </c>
+      <c r="E20" s="44">
+        <v>18</v>
+      </c>
+      <c r="F20" s="38">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38">
+        <v>-25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="44">
+        <v>19</v>
+      </c>
+      <c r="F21" s="38">
+        <v>50</v>
+      </c>
+      <c r="G21" s="4">
+        <v>25</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="45">
+        <v>20</v>
+      </c>
+      <c r="B22" s="39">
+        <v>-75</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-275</v>
+      </c>
+      <c r="E22" s="45">
+        <v>20</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-50</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="50"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4">
+        <f>AVERAGE(B3:B22)</f>
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="5">
+        <f>AVERAGE(C3:C22)</f>
+        <v>-217.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="50"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4">
+        <f>AVERAGE(F3:F22)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
+        <f>AVERAGE(G3:G22)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,10 +6843,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="33">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="C3" s="40">
-        <v>31.25</v>
+        <v>-25</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="30"/>
@@ -4136,11 +6864,11 @@
       <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
-        <v>68.75</v>
+      <c r="B4" s="33">
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>6.25</v>
+        <v>-50</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="30"/>
@@ -4158,11 +6886,11 @@
       <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="38">
-        <v>43.75</v>
+      <c r="B5" s="33">
+        <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>-18.75</v>
+        <v>-50</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="30"/>
@@ -4180,11 +6908,11 @@
       <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
-        <v>43.75</v>
+      <c r="B6" s="33">
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>6.25</v>
+        <v>-50</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="30"/>
@@ -4202,11 +6930,11 @@
       <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="38">
-        <v>18.75</v>
+      <c r="B7" s="33">
+        <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>-68.75</v>
+        <v>-25</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="30"/>
@@ -4224,8 +6952,12 @@
       <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-25</v>
+      </c>
       <c r="E8" s="47"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -4242,8 +6974,12 @@
       <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-50</v>
+      </c>
       <c r="E9" s="47"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -4260,8 +6996,12 @@
       <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="33">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-50</v>
+      </c>
       <c r="E10" s="47"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -4278,8 +7018,12 @@
       <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-50</v>
+      </c>
       <c r="E11" s="47"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -4296,8 +7040,12 @@
       <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="33">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-50</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -4314,8 +7062,12 @@
       <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="33">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-50</v>
+      </c>
       <c r="E13" s="47"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -4332,8 +7084,12 @@
       <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-50</v>
+      </c>
       <c r="E14" s="47"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -4350,8 +7106,12 @@
       <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="33">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-50</v>
+      </c>
       <c r="E15" s="47"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -4368,8 +7128,12 @@
       <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="33">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-50</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -4386,8 +7150,12 @@
       <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="33">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-50</v>
+      </c>
       <c r="E17" s="47"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -4404,8 +7172,12 @@
       <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="33">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-50</v>
+      </c>
       <c r="E18" s="47"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -4422,8 +7194,12 @@
       <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="33">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-50</v>
+      </c>
       <c r="E19" s="47"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -4440,8 +7216,12 @@
       <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="33">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-25</v>
+      </c>
       <c r="E20" s="47"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -4458,8 +7238,12 @@
       <c r="A21" s="44">
         <v>19</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="33">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-50</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -4476,8 +7260,12 @@
       <c r="A22" s="45">
         <v>20</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-50</v>
+      </c>
       <c r="E22" s="47"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -4516,1540 +7304,24 @@
       <c r="T24" s="31"/>
       <c r="U24" s="32"/>
     </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="11" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="27.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33">
-        <v>50</v>
-      </c>
-      <c r="C3" s="40">
-        <v>100</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4">
-        <v>100</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4">
-        <v>100</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
-        <v>13</v>
-      </c>
-      <c r="B15" s="33">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4">
-        <v>100</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="33">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4">
-        <v>100</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
-        <v>15</v>
-      </c>
-      <c r="B17" s="33">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4">
-        <v>100</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
-        <v>16</v>
-      </c>
-      <c r="B18" s="33">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4">
-        <v>100</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
-        <v>17</v>
-      </c>
-      <c r="B19" s="33">
-        <v>50</v>
-      </c>
-      <c r="C19" s="4">
-        <v>100</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>100</v>
-      </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
-        <v>19</v>
-      </c>
-      <c r="B21" s="33">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4">
-        <v>100</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45">
-        <v>20</v>
-      </c>
-      <c r="B22" s="33">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4">
-        <v>100</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="11" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="27.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33">
-        <v>-75</v>
-      </c>
-      <c r="C3" s="40">
-        <v>-250</v>
-      </c>
-      <c r="E3" s="43">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="40">
-        <v>-50</v>
-      </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-150</v>
-      </c>
-      <c r="E4" s="44">
-        <v>2</v>
-      </c>
-      <c r="F4" s="38">
-        <v>75</v>
-      </c>
-      <c r="G4" s="4">
-        <v>75</v>
-      </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="38">
-        <v>-75</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-200</v>
-      </c>
-      <c r="E5" s="44">
-        <v>3</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>25</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="38">
-        <v>-75</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-250</v>
-      </c>
-      <c r="E6" s="44">
-        <v>4</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-50</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
-        <v>5</v>
-      </c>
-      <c r="B7" s="38">
-        <v>-75</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-225</v>
-      </c>
-      <c r="E7" s="44">
-        <v>5</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
-        <v>6</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="44">
-        <v>6</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
-        <v>7</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="44">
-        <v>7</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
-        <v>8</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="44">
-        <v>8</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
-        <v>9</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="44">
-        <v>9</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
-        <v>10</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="44">
-        <v>10</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
-        <v>11</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="44">
-        <v>11</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="44">
-        <v>12</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
-        <v>13</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="44">
-        <v>13</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="44">
-        <v>14</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
-        <v>15</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="44">
-        <v>15</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
-        <v>16</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="44">
-        <v>16</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
-        <v>17</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="44">
-        <v>17</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="44">
-        <v>18</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
-        <v>19</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="44">
-        <v>19</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45">
-        <v>20</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="5"/>
-      <c r="E22" s="45">
-        <v>20</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="11" width="18.21875" customWidth="1"/>
-    <col min="13" max="13" width="27.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40">
-        <v>-25</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-50</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-50</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-50</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-25</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
-        <v>13</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
-        <v>15</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
-        <v>16</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
-        <v>17</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
-        <v>19</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45">
-        <v>20</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
+      <c r="A26" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="50">
+        <f>AVERAGE(B3:B22)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5">
+        <f>AVERAGE(C3:C22)</f>
+        <v>-45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
